--- a/_results/results_final.xlsx
+++ b/_results/results_final.xlsx
@@ -5,23 +5,35 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liz\Documents\Liz's\04Professional\masters_degree\CS598_DeepLearningHealthcare\proj\MLHC2018-reproducible-survival-seer-master\MLHC2018-reproducible-survival-seer-edits\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liz\Documents\Liz's\04Professional\masters_degree\_github\mcs598-SEERCancerStudy\_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AABC5635-682C-4F13-B507-365BFA1FD4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3369AF0C-8D41-474E-842B-0956D91B32C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="585" windowWidth="18195" windowHeight="14610" activeTab="1" xr2:uid="{8BE6937D-E2B8-4D0B-A3FE-90D45D56895F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8BE6937D-E2B8-4D0B-A3FE-90D45D56895F}"/>
   </bookViews>
   <sheets>
     <sheet name="combined_results" sheetId="1" r:id="rId1"/>
     <sheet name="top_attributes" sheetId="2" r:id="rId2"/>
+    <sheet name="runtime" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="137">
   <si>
     <t>folder</t>
   </si>
@@ -285,14 +297,163 @@
   </si>
   <si>
     <t xml:space="preserve">    \item CS version input current (2004-2015)</t>
+  </si>
+  <si>
+    <t>BREAST_12_NAIVE</t>
+  </si>
+  <si>
+    <t>2025-4-14_11-21-15_experiment-0</t>
+  </si>
+  <si>
+    <t>BREAST_60_NAIVE</t>
+  </si>
+  <si>
+    <t>2025-4-14_11-21-38_experiment-0</t>
+  </si>
+  <si>
+    <t>BREAST_12_LogR</t>
+  </si>
+  <si>
+    <t>2025-4-14_11-22-0_experiment-0</t>
+  </si>
+  <si>
+    <t>BREAST_60_LogR</t>
+  </si>
+  <si>
+    <t>2025-4-14_11-22-24_experiment-0</t>
+  </si>
+  <si>
+    <t>BREAST_12_LogREnc</t>
+  </si>
+  <si>
+    <t>2025-4-14_11-22-48_experiment-0</t>
+  </si>
+  <si>
+    <t>BREAST_60_LogREnc</t>
+  </si>
+  <si>
+    <t>2025-4-14_11-23-47_experiment-0</t>
+  </si>
+  <si>
+    <t>BREAST_12_MLP</t>
+  </si>
+  <si>
+    <t>2025-4-14_11-24-46_experiment-0</t>
+  </si>
+  <si>
+    <t>BREAST_60_MLP</t>
+  </si>
+  <si>
+    <t>2025-4-14_11-27-3_experiment-0</t>
+  </si>
+  <si>
+    <t>BREAST_12_MLPEnc</t>
+  </si>
+  <si>
+    <t>2025-4-14_11-29-16_experiment-0</t>
+  </si>
+  <si>
+    <t>BREAST_60_MLPEnc</t>
+  </si>
+  <si>
+    <t>2025-4-14_11-32-5_experiment-0</t>
+  </si>
+  <si>
+    <t>BREAST_12_MLPEmbEnc</t>
+  </si>
+  <si>
+    <t>2025-4-14_11-34-48_experiment-0</t>
+  </si>
+  <si>
+    <t>BREAST_60_MLPEmbEnc</t>
+  </si>
+  <si>
+    <t>2025-4-14_11-42-26_experiment-0</t>
+  </si>
+  <si>
+    <t>LUNG_12_NAIVE</t>
+  </si>
+  <si>
+    <t>2025-4-14_11-48-42_experiment-0</t>
+  </si>
+  <si>
+    <t>LUNG_60_NAIVE</t>
+  </si>
+  <si>
+    <t>2025-4-14_11-49-0_experiment-0</t>
+  </si>
+  <si>
+    <t>LUNG_12_LogR</t>
+  </si>
+  <si>
+    <t>2025-4-14_11-49-20_experiment-0</t>
+  </si>
+  <si>
+    <t>LUNG_60_LogR</t>
+  </si>
+  <si>
+    <t>2025-4-14_11-49-40_experiment-0</t>
+  </si>
+  <si>
+    <t>LUNG_12_LogREnc</t>
+  </si>
+  <si>
+    <t>2025-4-14_11-49-59_experiment-0</t>
+  </si>
+  <si>
+    <t>LUNG_60_LogREnc</t>
+  </si>
+  <si>
+    <t>2025-4-14_11-50-47_experiment-0</t>
+  </si>
+  <si>
+    <t>LUNG_12_MLP</t>
+  </si>
+  <si>
+    <t>2025-4-14_11-51-34_experiment-0</t>
+  </si>
+  <si>
+    <t>LUNG_60_MLP</t>
+  </si>
+  <si>
+    <t>2025-4-14_12-00-38_experiment-0</t>
+  </si>
+  <si>
+    <t>LUNG_12_MLPEnc</t>
+  </si>
+  <si>
+    <t>2025-4-14_12-09-18_experiment-0</t>
+  </si>
+  <si>
+    <t>LUNG_60_MLPEnc</t>
+  </si>
+  <si>
+    <t>2025-4-14_12-17-14_experiment-0</t>
+  </si>
+  <si>
+    <t>LUNG_12_MLPEmbEnc</t>
+  </si>
+  <si>
+    <t>2025-4-14_12-25-24_experiment-0</t>
+  </si>
+  <si>
+    <t>LUNG_60_MLPEmbEnc</t>
+  </si>
+  <si>
+    <t>2025-4-14_12-44-34_experiment-0</t>
+  </si>
+  <si>
+    <t>hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -771,12 +932,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1134,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17BD073-874F-4DCC-8C87-363DEF473242}">
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20:X25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2827,7 +2991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D19281-A00E-419C-91AD-74E34538C1F5}">
   <dimension ref="A1:A68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:A68"/>
     </sheetView>
   </sheetViews>
@@ -3136,4 +3300,243 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EE06DA-49A8-4E70-883A-EC305E7D40B2}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="3">
+        <f>TIME(11,21,15)</f>
+        <v>0.47309027777777779</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="3">
+        <f>TIME(12,25,24)</f>
+        <v>0.51763888888888887</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="3">
+        <f>TIME(12,44,34)</f>
+        <v>0.5309490740740741</v>
+      </c>
+      <c r="D24" s="4">
+        <f>C24-C23</f>
+        <v>1.331018518518523E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="5">
+        <f>(C24-C1+D24)*24</f>
+        <v>1.708055555555557</v>
+      </c>
+      <c r="D26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/_results/results_final.xlsx
+++ b/_results/results_final.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liz\Documents\Liz's\04Professional\masters_degree\_github\mcs598-SEERCancerStudy\_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3369AF0C-8D41-474E-842B-0956D91B32C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7044216B-0FDC-4144-915B-DC5FD1BC61ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8BE6937D-E2B8-4D0B-A3FE-90D45D56895F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8BE6937D-E2B8-4D0B-A3FE-90D45D56895F}"/>
   </bookViews>
   <sheets>
     <sheet name="combined_results" sheetId="1" r:id="rId1"/>
     <sheet name="top_attributes" sheetId="2" r:id="rId2"/>
     <sheet name="runtime" sheetId="3" r:id="rId3"/>
+    <sheet name="presentation" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="144">
   <si>
     <t>folder</t>
   </si>
@@ -444,18 +445,40 @@
   </si>
   <si>
     <t>hours</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>1 Year</t>
+  </si>
+  <si>
+    <t>5 Year</t>
+  </si>
+  <si>
+    <t>BREAST</t>
+  </si>
+  <si>
+    <t>Lung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,8 +613,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -771,8 +811,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -887,6 +939,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -932,15 +1008,34 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1299,7 +1394,7 @@
   <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,10 +1480,10 @@
       <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="2"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2991,8 +3086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D19281-A00E-419C-91AD-74E34538C1F5}">
   <dimension ref="A1:A68"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A68"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3306,7 +3401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EE06DA-49A8-4E70-883A-EC305E7D40B2}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
@@ -3325,7 +3420,7 @@
       <c r="B1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <f>TIME(11,21,15)</f>
         <v>0.47309027777777779</v>
       </c>
@@ -3497,7 +3592,7 @@
       <c r="B22" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -3506,7 +3601,7 @@
       <c r="B23" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <f>TIME(12,25,24)</f>
         <v>0.51763888888888887</v>
       </c>
@@ -3518,17 +3613,17 @@
       <c r="B24" t="s">
         <v>135</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f>TIME(12,44,34)</f>
         <v>0.5309490740740741</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <f>C24-C23</f>
         <v>1.331018518518523E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <f>(C24-C1+D24)*24</f>
         <v>1.708055555555557</v>
       </c>
@@ -3539,4 +3634,642 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43BF91E-9C71-4311-9C1F-99C7B91494C6}">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA12" sqref="AA12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="1.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="7" customWidth="1"/>
+    <col min="12" max="12" width="1.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+      <c r="B1" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="5" t="str">
+        <f>combined_results!W2</f>
+        <v>BASE</v>
+      </c>
+      <c r="C5" s="7">
+        <f>ROUND(combined_results!Q2, 4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="7">
+        <f>ROUND(combined_results!R2, 4)</f>
+        <v>0.98529999999999995</v>
+      </c>
+      <c r="E5" s="7">
+        <f>ROUND(combined_results!S2, 4)</f>
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="5" t="str">
+        <f>combined_results!W14</f>
+        <v>BASE</v>
+      </c>
+      <c r="I5" s="16">
+        <f>ROUND(combined_results!Q14, 4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="16">
+        <f>ROUND(combined_results!R14, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <f>ROUND(combined_results!S14, 4)</f>
+        <v>0.55940000000000001</v>
+      </c>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="5" t="str">
+        <f>combined_results!W3</f>
+        <v>LOG REG</v>
+      </c>
+      <c r="C6" s="7">
+        <f>ROUND(combined_results!Q3, 4)</f>
+        <v>0.94340000000000002</v>
+      </c>
+      <c r="D6" s="7">
+        <f>ROUND(combined_results!R3, 4)</f>
+        <v>0.9869</v>
+      </c>
+      <c r="E6" s="7">
+        <f>ROUND(combined_results!S3, 4)</f>
+        <v>0.97430000000000005</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="5" t="str">
+        <f>combined_results!W15</f>
+        <v>LOG REG</v>
+      </c>
+      <c r="I6" s="8">
+        <f>ROUND(combined_results!Q15, 4)</f>
+        <v>0.82010000000000005</v>
+      </c>
+      <c r="J6" s="12">
+        <f>ROUND(combined_results!R15, 4)</f>
+        <v>0.69679999999999997</v>
+      </c>
+      <c r="K6" s="12">
+        <f>ROUND(combined_results!S15, 4)</f>
+        <v>0.75609999999999999</v>
+      </c>
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="5" t="str">
+        <f>combined_results!W4</f>
+        <v>LOG REG 1-N ENC</v>
+      </c>
+      <c r="C7" s="10">
+        <f>ROUND(combined_results!Q4, 4)</f>
+        <v>0.9506</v>
+      </c>
+      <c r="D7" s="10">
+        <f>ROUND(combined_results!R4, 4)</f>
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="E7" s="7">
+        <f>ROUND(combined_results!S4, 4)</f>
+        <v>0.97550000000000003</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="5" t="str">
+        <f>combined_results!W16</f>
+        <v>LOG REG 1-N ENC</v>
+      </c>
+      <c r="I7" s="8">
+        <f>ROUND(combined_results!Q16, 4)</f>
+        <v>0.84140000000000004</v>
+      </c>
+      <c r="J7" s="12">
+        <f>ROUND(combined_results!R16, 4)</f>
+        <v>0.71709999999999996</v>
+      </c>
+      <c r="K7" s="8">
+        <f>ROUND(combined_results!S16, 4)</f>
+        <v>0.76910000000000001</v>
+      </c>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="5" t="str">
+        <f>combined_results!W5</f>
+        <v>MLP</v>
+      </c>
+      <c r="C8" s="7">
+        <f>ROUND(combined_results!Q5, 4)</f>
+        <v>0.94730000000000003</v>
+      </c>
+      <c r="D8" s="7">
+        <f>ROUND(combined_results!R5, 4)</f>
+        <v>0.98709999999999998</v>
+      </c>
+      <c r="E8" s="7">
+        <f>ROUND(combined_results!S5, 4)</f>
+        <v>0.9748</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="5" t="str">
+        <f>combined_results!W17</f>
+        <v>MLP</v>
+      </c>
+      <c r="I8" s="12">
+        <f>ROUND(combined_results!Q17, 4)</f>
+        <v>0.83819999999999995</v>
+      </c>
+      <c r="J8" s="8">
+        <f>ROUND(combined_results!R17, 4)</f>
+        <v>0.71560000000000001</v>
+      </c>
+      <c r="K8" s="12">
+        <f>ROUND(combined_results!S17, 4)</f>
+        <v>0.76690000000000003</v>
+      </c>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="5" t="str">
+        <f>combined_results!W6</f>
+        <v>MLP 1-N ENC</v>
+      </c>
+      <c r="C9" s="7">
+        <f>ROUND(combined_results!Q6, 4)</f>
+        <v>0.94830000000000003</v>
+      </c>
+      <c r="D9" s="7">
+        <f>ROUND(combined_results!R6, 4)</f>
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="E9" s="7">
+        <f>ROUND(combined_results!S6, 4)</f>
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="5" t="str">
+        <f>combined_results!W18</f>
+        <v>MLP 1-N ENC</v>
+      </c>
+      <c r="I9" s="8">
+        <f>ROUND(combined_results!Q18, 4)</f>
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="J9" s="8">
+        <f>ROUND(combined_results!R18, 4)</f>
+        <v>0.72540000000000004</v>
+      </c>
+      <c r="K9" s="12">
+        <f>ROUND(combined_results!S18, 4)</f>
+        <v>0.76829999999999998</v>
+      </c>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="5" t="str">
+        <f>combined_results!W7</f>
+        <v>MLPEmb 1-N ENC</v>
+      </c>
+      <c r="C10" s="9">
+        <f>ROUND(combined_results!Q7, 4)</f>
+        <v>0.95089999999999997</v>
+      </c>
+      <c r="D10" s="9">
+        <f>ROUND(combined_results!R7, 4)</f>
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="E10" s="7">
+        <f>ROUND(combined_results!S7, 4)</f>
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="5" t="str">
+        <f>combined_results!W19</f>
+        <v>MLPEmb 1-N ENC</v>
+      </c>
+      <c r="I10" s="17">
+        <f>ROUND(combined_results!Q19, 4)</f>
+        <v>0.84689999999999999</v>
+      </c>
+      <c r="J10" s="17">
+        <f>ROUND(combined_results!R19, 4)</f>
+        <v>0.72819999999999996</v>
+      </c>
+      <c r="K10" s="8">
+        <f>ROUND(combined_results!S19, 4)</f>
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="5" t="str">
+        <f>combined_results!W8</f>
+        <v>BASE</v>
+      </c>
+      <c r="C14" s="7">
+        <f>ROUND(combined_results!Q8, 4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="12">
+        <f>ROUND(combined_results!R8, 4)</f>
+        <v>0.93620000000000003</v>
+      </c>
+      <c r="E14" s="12">
+        <f>ROUND(combined_results!S8, 4)</f>
+        <v>0.88</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="5" t="str">
+        <f>combined_results!W20</f>
+        <v>BASE</v>
+      </c>
+      <c r="I14" s="16">
+        <f>ROUND(combined_results!Q20, 4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="16">
+        <f>ROUND(combined_results!R20, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="12">
+        <f>ROUND(combined_results!S20, 4)</f>
+        <v>0.84489999999999998</v>
+      </c>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="5" t="str">
+        <f>combined_results!W9</f>
+        <v>LOG REG</v>
+      </c>
+      <c r="C15" s="5">
+        <f>ROUND(combined_results!Q9, 4)</f>
+        <v>0.87890000000000001</v>
+      </c>
+      <c r="D15" s="12">
+        <f>ROUND(combined_results!R9, 4)</f>
+        <v>0.95089999999999997</v>
+      </c>
+      <c r="E15" s="12">
+        <f>ROUND(combined_results!S9, 4)</f>
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="5" t="str">
+        <f>combined_results!W21</f>
+        <v>LOG REG</v>
+      </c>
+      <c r="I15" s="12">
+        <f>ROUND(combined_results!Q21, 4)</f>
+        <v>0.89649999999999996</v>
+      </c>
+      <c r="J15" s="12">
+        <f>ROUND(combined_results!R21, 4)</f>
+        <v>0.62870000000000004</v>
+      </c>
+      <c r="K15" s="12">
+        <f>ROUND(combined_results!S21, 4)</f>
+        <v>0.89680000000000004</v>
+      </c>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="5" t="str">
+        <f>combined_results!W10</f>
+        <v>LOG REG 1-N ENC</v>
+      </c>
+      <c r="C16" s="7">
+        <f>ROUND(combined_results!Q10, 4)</f>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="D16" s="13">
+        <f>ROUND(combined_results!R10, 4)</f>
+        <v>0.95489999999999997</v>
+      </c>
+      <c r="E16" s="12">
+        <f>ROUND(combined_results!S10, 4)</f>
+        <v>0.91849999999999998</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="5" t="str">
+        <f>combined_results!W22</f>
+        <v>LOG REG 1-N ENC</v>
+      </c>
+      <c r="I16" s="18">
+        <f>ROUND(combined_results!Q22, 4)</f>
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="J16" s="12">
+        <f>ROUND(combined_results!R22, 4)</f>
+        <v>0.65090000000000003</v>
+      </c>
+      <c r="K16" s="12">
+        <f>ROUND(combined_results!S22, 4)</f>
+        <v>0.90310000000000001</v>
+      </c>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="5" t="str">
+        <f>combined_results!W11</f>
+        <v>MLP</v>
+      </c>
+      <c r="C17" s="7">
+        <f>ROUND(combined_results!Q11, 4)</f>
+        <v>0.90049999999999997</v>
+      </c>
+      <c r="D17" s="12">
+        <f>ROUND(combined_results!R11, 4)</f>
+        <v>0.95469999999999999</v>
+      </c>
+      <c r="E17" s="12">
+        <f>ROUND(combined_results!S11, 4)</f>
+        <v>0.91790000000000005</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="5" t="str">
+        <f>combined_results!W23</f>
+        <v>MLP</v>
+      </c>
+      <c r="I17" s="12">
+        <f>ROUND(combined_results!Q23, 4)</f>
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="J17" s="12">
+        <f>ROUND(combined_results!R23, 4)</f>
+        <v>0.65010000000000001</v>
+      </c>
+      <c r="K17" s="12">
+        <f>ROUND(combined_results!S23, 4)</f>
+        <v>0.89729999999999999</v>
+      </c>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="5" t="str">
+        <f>combined_results!W12</f>
+        <v>MLP 1-N ENC</v>
+      </c>
+      <c r="C18" s="9">
+        <f>ROUND(combined_results!Q12, 4)</f>
+        <v>0.90410000000000001</v>
+      </c>
+      <c r="D18" s="14">
+        <f>ROUND(combined_results!R12, 4)</f>
+        <v>0.95520000000000005</v>
+      </c>
+      <c r="E18" s="12">
+        <f>ROUND(combined_results!S12, 4)</f>
+        <v>0.91879999999999995</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="5" t="str">
+        <f>combined_results!W24</f>
+        <v>MLP 1-N ENC</v>
+      </c>
+      <c r="I18" s="12">
+        <f>ROUND(combined_results!Q24, 4)</f>
+        <v>0.90969999999999995</v>
+      </c>
+      <c r="J18" s="14">
+        <f>ROUND(combined_results!R24, 4)</f>
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="K18" s="12">
+        <f>ROUND(combined_results!S24, 4)</f>
+        <v>0.90129999999999999</v>
+      </c>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="5" t="str">
+        <f>combined_results!W13</f>
+        <v>MLPEmb 1-N ENC</v>
+      </c>
+      <c r="C19" s="11">
+        <f>ROUND(combined_results!Q13, 4)</f>
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="D19" s="12">
+        <f>ROUND(combined_results!R13, 4)</f>
+        <v>0.95479999999999998</v>
+      </c>
+      <c r="E19" s="12">
+        <f>ROUND(combined_results!S13, 4)</f>
+        <v>0.91820000000000002</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="5" t="str">
+        <f>combined_results!W25</f>
+        <v>MLPEmb 1-N ENC</v>
+      </c>
+      <c r="I19" s="12">
+        <f>ROUND(combined_results!Q25, 4)</f>
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="J19" s="13">
+        <f>ROUND(combined_results!R25, 4)</f>
+        <v>0.6653</v>
+      </c>
+      <c r="K19" s="12">
+        <f>ROUND(combined_results!S25, 4)</f>
+        <v>0.9</v>
+      </c>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I12:K12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>